--- a/data/data_5.xlsx
+++ b/data/data_5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/falkzimmer/Desktop/UNI/01_Master/01_Semester/03/Projektmodul/PM Coding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/falkzimmer/Desktop/UNI/01_Master/01_Semester/03/Projektmodul/00 PM Coding  piecewise/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFFB7E4-AA76-724D-A2DA-78A28BB8F4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CD4885-0691-9444-9C11-4859CCA840AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{5ED0D196-DC63-0A40-9FF8-A9B38A6CE3F7}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,16 +577,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>360</v>
+        <v>700</v>
       </c>
       <c r="C5">
-        <v>1170</v>
+        <v>1100</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -597,16 +597,16 @@
         <v>5</v>
       </c>
       <c r="B6">
+        <v>800</v>
+      </c>
+      <c r="C6">
         <v>900</v>
       </c>
-      <c r="C6">
-        <v>1170</v>
-      </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>

--- a/data/data_5.xlsx
+++ b/data/data_5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/falkzimmer/Desktop/UNI/01_Master/01_Semester/03/Projektmodul/00 PM Coding  piecewise/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/falkzimmer/Downloads/Projektmodul/piecewise_new/HomeHealthCare-DialARide/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CD4885-0691-9444-9C11-4859CCA840AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063DF9E4-1CDF-1B41-948F-C0C05748D04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{5ED0D196-DC63-0A40-9FF8-A9B38A6CE3F7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Healhcare service</t>
   </si>
@@ -85,24 +85,6 @@
   </si>
   <si>
     <t>start</t>
-  </si>
-  <si>
-    <t>MCd</t>
-  </si>
-  <si>
-    <t>1p</t>
-  </si>
-  <si>
-    <t>2p</t>
-  </si>
-  <si>
-    <t>3p</t>
-  </si>
-  <si>
-    <t>4p</t>
-  </si>
-  <si>
-    <t>5p</t>
   </si>
 </sst>
 </file>
@@ -484,7 +466,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A7" sqref="A7:E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,7 +505,7 @@
         <v>630</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -543,7 +525,7 @@
         <v>1170</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>90</v>
@@ -563,7 +545,7 @@
         <v>900</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -577,16 +559,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="C5">
-        <v>1100</v>
+        <v>1170</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -597,16 +579,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="C6">
-        <v>900</v>
+        <v>1170</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -664,10 +646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D5A135-D900-5143-8417-FF1A9630E706}">
-  <dimension ref="A2:M14"/>
+  <dimension ref="A2:BY8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="107" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -676,7 +658,7 @@
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -698,26 +680,78 @@
       <c r="G2" s="1">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BT2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BV2" s="1"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
+      <c r="BY2" s="1"/>
+    </row>
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -739,26 +773,8 @@
       <c r="G3">
         <v>5</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
-      </c>
-      <c r="L3">
-        <v>4</v>
-      </c>
-      <c r="M3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -780,26 +796,8 @@
       <c r="G4">
         <v>6</v>
       </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>6</v>
-      </c>
-      <c r="L4">
-        <v>6</v>
-      </c>
-      <c r="M4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -821,26 +819,8 @@
       <c r="G5">
         <v>5</v>
       </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -862,26 +842,8 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>6</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -903,26 +865,8 @@
       <c r="G7">
         <v>2</v>
       </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -942,270 +886,6 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>5</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9">
-        <v>4</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
-      <c r="M9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <v>6</v>
-      </c>
-      <c r="L10">
-        <v>6</v>
-      </c>
-      <c r="M10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="L11">
-        <v>4</v>
-      </c>
-      <c r="M11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12">
-        <v>6</v>
-      </c>
-      <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>6</v>
-      </c>
-      <c r="J13">
-        <v>4</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <v>6</v>
-      </c>
-      <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="M14">
         <v>0</v>
       </c>
     </row>
